--- a/test_data/test_mycobot_280.xlsx
+++ b/test_data/test_mycobot_280.xlsx
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
